--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_Main_Board_BOM_All_V12.6_07-16-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_Main_Board_BOM_All_V12.6_07-16-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCA241C-1392-424C-B294-490DCF8482AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97533CE8-B534-469E-85EE-F1B825B34AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board Summary" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="180">
   <si>
     <t>Quantity</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Inductor 10uH 20%</t>
   </si>
   <si>
     <t>L1, L2, L3</t>
@@ -840,6 +837,12 @@
   </si>
   <si>
     <t>For U1, U3</t>
+  </si>
+  <si>
+    <t>Inductor 10uH 20% SMD 2424</t>
+  </si>
+  <si>
+    <t>732-5394-ND</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1421,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1444,7 +1447,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1909,8 +1911,8 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1922,169 +1924,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.6">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.6">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
-        <v>1</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21">
+      <c r="C5" s="21"/>
+      <c r="D5" s="20">
         <f>'Base Board'!A43</f>
         <v>89</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f>'Base Board'!I43</f>
-        <v>87.171999999999997</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+        <v>87.652000000000001</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21">
+      <c r="B6" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="20">
         <f>'Soft Shutdown Option'!A12</f>
         <v>13</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f>'Soft Shutdown Option'!F12</f>
         <v>8.9779999999999998</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21">
+      <c r="B7" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="20">
         <f>'Reverse Voltage Protection'!A5</f>
         <v>3</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <f>'Reverse Voltage Protection'!F5</f>
         <v>5.43</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="24">
         <f>SUM(D5:D7)</f>
         <v>105</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
-        <v>101.57999999999998</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+        <v>102.06</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,8 +2101,8 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A35" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2124,7 +2126,7 @@
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -2134,19 +2136,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2157,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -2175,13 +2177,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="13">
         <v>0.1</v>
@@ -2198,7 +2200,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -2220,13 +2222,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" s="13">
         <v>0.17</v>
@@ -2244,10 +2246,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="10">
         <v>0.28999999999999998</v>
@@ -2285,11 +2287,11 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="13">
         <v>0.24</v>
@@ -2310,7 +2312,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
@@ -2328,13 +2330,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E10" s="1"/>
       <c r="H10" s="13">
@@ -2353,16 +2355,16 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="13">
         <v>1.41</v>
@@ -2377,13 +2379,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -2401,13 +2403,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
         <v>173</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" t="s">
-        <v>174</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -2425,13 +2427,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="13">
         <v>0.36</v>
@@ -2446,13 +2448,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
         <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
       </c>
       <c r="H15" s="13">
         <v>0.1</v>
@@ -2467,13 +2469,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16" s="13">
         <v>0.1</v>
@@ -2488,13 +2490,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" t="s">
         <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
       </c>
       <c r="H17" s="13">
         <v>0.1</v>
@@ -2509,13 +2511,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>30</v>
+        <v>132</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="10">
         <v>0.1</v>
@@ -2530,13 +2532,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" t="s">
         <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
       </c>
       <c r="H19" s="13">
         <v>0.1</v>
@@ -2551,13 +2553,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="D20" t="s">
         <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
       </c>
       <c r="H20" s="13">
         <v>0.1</v>
@@ -2572,13 +2574,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" t="s">
         <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
       </c>
       <c r="H21" s="13">
         <v>0.1</v>
@@ -2593,13 +2595,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="D22" t="s">
         <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
       </c>
       <c r="H22" s="13">
         <v>0.1</v>
@@ -2614,13 +2616,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="H23" s="13">
         <v>0.1</v>
@@ -2635,14 +2637,14 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>128</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>129</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H24" s="10">
         <v>0.39</v>
@@ -2657,16 +2659,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" s="10">
         <v>31.5</v>
@@ -2681,16 +2683,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="10">
         <v>14.4</v>
@@ -2705,13 +2707,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
       </c>
       <c r="H27" s="13">
         <v>1.7</v>
@@ -2726,13 +2728,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
         <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
       </c>
       <c r="H28" s="13">
         <v>0.46</v>
@@ -2747,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
         <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
       </c>
       <c r="H29" s="13">
         <v>1.69</v>
@@ -2768,13 +2770,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="D30" t="s">
         <v>53</v>
-      </c>
-      <c r="D30" t="s">
-        <v>54</v>
       </c>
       <c r="H30" s="13">
         <v>1.66</v>
@@ -2789,13 +2791,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="13">
         <v>5.0199999999999996</v>
@@ -2810,13 +2812,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
         <v>168</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" t="s">
-        <v>169</v>
       </c>
       <c r="H32" s="13">
         <v>1.71</v>
@@ -2831,13 +2833,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" t="s">
         <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>89</v>
       </c>
       <c r="H33" s="10">
         <v>0.02</v>
@@ -2852,16 +2854,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="10">
         <v>0.22</v>
@@ -2876,16 +2878,16 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35" s="10">
         <v>0.5</v>
@@ -2895,7 +2897,7 @@
         <v>0.5</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2903,16 +2905,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H36" s="10">
         <v>0.14000000000000001</v>
@@ -2927,10 +2929,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -2939,7 +2941,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H37" s="10">
         <v>0.48</v>
@@ -2954,10 +2956,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
@@ -2966,7 +2968,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38" s="10">
         <v>0.48</v>
@@ -2981,16 +2983,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" s="10">
         <v>0.13</v>
@@ -3005,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H40" s="10">
         <v>0.8</v>
@@ -3026,16 +3028,16 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" s="10">
         <v>0.02</v>
@@ -3050,13 +3052,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H42" s="10">
         <v>0.79</v>
@@ -3071,16 +3073,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H43" s="10">
         <v>0.02</v>
@@ -3095,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H44" s="10">
         <v>0.18</v>
@@ -3116,13 +3118,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H45" s="10">
         <v>0.02</v>
@@ -3137,13 +3139,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H46" s="10">
         <v>0.17</v>
@@ -3158,13 +3160,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H47" s="10">
         <v>0.79</v>
@@ -3173,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3181,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H48" s="10">
         <v>0.5</v>
@@ -3199,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H49" s="10">
         <v>0.22</v>
@@ -3217,13 +3219,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
         <v>20</v>
@@ -3241,13 +3243,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H51" s="10">
         <v>0.87</v>
@@ -3262,12 +3264,21 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I52" s="15"/>
+      <c r="G52" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="I52" s="15">
+        <f>H52*A52</f>
+        <v>0.48</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
@@ -3276,17 +3287,17 @@
       </c>
       <c r="I53" s="14">
         <f>SUM(I2:I52)</f>
-        <v>96.529999999999987</v>
+        <v>97.009999999999991</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="17" t="s">
-        <v>165</v>
+      <c r="B56" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3301,8 +3312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654AF2B0-A25E-4579-92A7-2605A258747F}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3336,19 +3347,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3359,7 +3370,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -3377,13 +3388,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="13">
         <v>0.1</v>
@@ -3401,10 +3412,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="13">
         <v>0.17</v>
@@ -3422,10 +3433,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="10">
         <v>0.28999999999999998</v>
@@ -3467,7 +3478,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -3488,16 +3499,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="13">
         <v>1.41</v>
@@ -3512,13 +3523,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -3536,13 +3547,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="H10" s="13">
         <v>0.1</v>
@@ -3557,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="13">
         <v>0.1</v>
@@ -3578,13 +3589,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
       </c>
       <c r="H12" s="13">
         <v>0.1</v>
@@ -3599,13 +3610,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="10">
         <v>0.1</v>
@@ -3620,13 +3631,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
       </c>
       <c r="H14" s="13">
         <v>0.1</v>
@@ -3641,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
       </c>
       <c r="H15" s="13">
         <v>0.1</v>
@@ -3662,14 +3673,14 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="10">
         <v>0.39</v>
@@ -3684,16 +3695,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" s="10">
         <v>31.5</v>
@@ -3708,16 +3719,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="10">
         <v>14.4</v>
@@ -3732,13 +3743,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="13">
         <v>1.7</v>
@@ -3753,13 +3764,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
       </c>
       <c r="H20" s="13">
         <v>1.69</v>
@@ -3774,13 +3785,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="13">
         <v>5.0199999999999996</v>
@@ -3795,13 +3806,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
         <v>168</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>169</v>
       </c>
       <c r="H22" s="13">
         <v>1.71</v>
@@ -3816,13 +3827,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>89</v>
       </c>
       <c r="H23" s="10">
         <v>0.02</v>
@@ -3837,16 +3848,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H24" s="10">
         <v>0.22</v>
@@ -3861,16 +3872,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H25" s="10">
         <v>0.5</v>
@@ -3880,7 +3891,7 @@
         <v>0.5</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3888,16 +3899,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" s="10">
         <v>0.14000000000000001</v>
@@ -3912,10 +3923,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
         <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -3924,7 +3935,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="10">
         <v>0.48</v>
@@ -3939,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -3951,7 +3962,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="10">
         <v>0.48</v>
@@ -3966,16 +3977,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H29" s="10">
         <v>0.13</v>
@@ -3990,13 +4001,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" s="10">
         <v>0.8</v>
@@ -4011,16 +4022,16 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" s="10">
         <v>0.02</v>
@@ -4035,13 +4046,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H32" s="10">
         <v>0.79</v>
@@ -4056,16 +4067,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H33" s="10">
         <v>0.02</v>
@@ -4080,13 +4091,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H34" s="10">
         <v>0.18</v>
@@ -4101,13 +4112,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H35" s="10">
         <v>0.02</v>
@@ -4122,13 +4133,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H36" s="10">
         <v>0.17</v>
@@ -4143,13 +4154,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
         <v>120</v>
       </c>
-      <c r="C37" t="s">
-        <v>121</v>
-      </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H37" s="10">
         <v>0.79</v>
@@ -4158,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4166,10 +4177,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H38" s="10">
         <v>0.5</v>
@@ -4184,10 +4195,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" s="10">
         <v>0.22</v>
@@ -4202,13 +4213,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
         <v>81</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -4226,13 +4237,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H41" s="10">
         <v>0.87</v>
@@ -4247,12 +4258,21 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
         <v>126</v>
       </c>
-      <c r="C42" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42" s="15"/>
+      <c r="G42" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="I42" s="15">
+        <f>H42*A42</f>
+        <v>0.48</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
@@ -4261,12 +4281,12 @@
       </c>
       <c r="I43" s="14">
         <f>SUM(I2:I42)</f>
-        <v>87.171999999999997</v>
+        <v>87.652000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4309,10 +4329,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4323,7 +4343,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4365,10 +4385,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="10">
         <v>0.28999999999999998</v>
@@ -4389,7 +4409,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="13">
         <v>0.24</v>
@@ -4404,13 +4424,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E6" s="13">
         <v>5.05</v>
@@ -4425,13 +4445,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="13">
         <v>0.36</v>
@@ -4446,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="13">
         <v>0.1</v>
@@ -4467,13 +4487,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="13">
         <v>0.1</v>
@@ -4488,13 +4508,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
       </c>
       <c r="E10" s="13">
         <v>0.46</v>
@@ -4509,18 +4529,18 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
       </c>
       <c r="E11" s="13">
         <v>1.66</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
@@ -4541,8 +4561,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="17" t="s">
-        <v>165</v>
+      <c r="B14" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4585,10 +4605,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4596,13 +4616,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E2" s="13">
         <v>0.28000000000000003</v>
@@ -4617,13 +4637,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E3" s="13">
         <v>5.05</v>
@@ -4638,18 +4658,18 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E4" s="13">
         <v>0.1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>E4*A4</f>
         <v>0.1</v>
       </c>
@@ -4670,8 +4690,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
-        <v>165</v>
+      <c r="B7" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
